--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Sfrp2</t>
   </si>
   <si>
     <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>85.63060392684569</v>
+        <v>1.889835333333333</v>
       </c>
       <c r="H2">
-        <v>85.63060392684569</v>
+        <v>5.669506</v>
       </c>
       <c r="I2">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="J2">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.29639160852464</v>
+        <v>8.259748666666667</v>
       </c>
       <c r="N2">
-        <v>6.29639160852464</v>
+        <v>24.779246</v>
       </c>
       <c r="O2">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="P2">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="Q2">
-        <v>539.1638159978884</v>
+        <v>15.60956487471956</v>
       </c>
       <c r="R2">
-        <v>539.1638159978884</v>
+        <v>140.486083872476</v>
       </c>
       <c r="S2">
-        <v>0.3495631794925992</v>
+        <v>0.008533134975009215</v>
       </c>
       <c r="T2">
-        <v>0.3495631794925992</v>
+        <v>0.008533134975009215</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>85.63060392684569</v>
+        <v>1.889835333333333</v>
       </c>
       <c r="H3">
-        <v>85.63060392684569</v>
+        <v>5.669506</v>
       </c>
       <c r="I3">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="J3">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.66517850639993</v>
+        <v>5.709686666666666</v>
       </c>
       <c r="N3">
-        <v>5.66517850639993</v>
+        <v>17.12906</v>
       </c>
       <c r="O3">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="P3">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="Q3">
-        <v>485.1126568564117</v>
+        <v>10.79036760492889</v>
       </c>
       <c r="R3">
-        <v>485.1126568564117</v>
+        <v>97.11330844436</v>
       </c>
       <c r="S3">
-        <v>0.3145194794442468</v>
+        <v>0.005898669433889608</v>
       </c>
       <c r="T3">
-        <v>0.3145194794442468</v>
+        <v>0.005898669433889609</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>85.63060392684569</v>
+        <v>1.889835333333333</v>
       </c>
       <c r="H4">
-        <v>85.63060392684569</v>
+        <v>5.669506</v>
       </c>
       <c r="I4">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="J4">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.0764131875407</v>
+        <v>4.176559</v>
       </c>
       <c r="N4">
-        <v>4.0764131875407</v>
+        <v>12.529677</v>
       </c>
       <c r="O4">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="P4">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="Q4">
-        <v>349.0657231044682</v>
+        <v>7.893008769951334</v>
       </c>
       <c r="R4">
-        <v>349.0657231044682</v>
+        <v>71.037078929562</v>
       </c>
       <c r="S4">
-        <v>0.2263143786725463</v>
+        <v>0.004314797352359653</v>
       </c>
       <c r="T4">
-        <v>0.2263143786725463</v>
+        <v>0.004314797352359653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>85.63060392684569</v>
+        <v>1.889835333333333</v>
       </c>
       <c r="H5">
-        <v>85.63060392684569</v>
+        <v>5.669506</v>
       </c>
       <c r="I5">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="J5">
-        <v>0.9942219901479122</v>
+        <v>0.02071896679199164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87011275291609</v>
+        <v>1.909174</v>
       </c>
       <c r="N5">
-        <v>1.87011275291609</v>
+        <v>5.727522</v>
       </c>
       <c r="O5">
-        <v>0.1044283405188752</v>
+        <v>0.09519610946504979</v>
       </c>
       <c r="P5">
-        <v>0.1044283405188752</v>
+        <v>0.09519610946504979</v>
       </c>
       <c r="Q5">
-        <v>160.1388844435007</v>
+        <v>3.608024482681333</v>
       </c>
       <c r="R5">
-        <v>160.1388844435007</v>
+        <v>32.472220344132</v>
       </c>
       <c r="S5">
-        <v>0.1038249525385199</v>
+        <v>0.001972365030733168</v>
       </c>
       <c r="T5">
-        <v>0.1038249525385199</v>
+        <v>0.001972365030733168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.497649899149719</v>
+        <v>88.03635633333333</v>
       </c>
       <c r="H6">
-        <v>0.497649899149719</v>
+        <v>264.109069</v>
       </c>
       <c r="I6">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709343</v>
       </c>
       <c r="J6">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709341</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.29639160852464</v>
+        <v>8.259748666666667</v>
       </c>
       <c r="N6">
-        <v>6.29639160852464</v>
+        <v>24.779246</v>
       </c>
       <c r="O6">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="P6">
-        <v>0.3515946971164801</v>
+        <v>0.4118513756345933</v>
       </c>
       <c r="Q6">
-        <v>3.133398648989425</v>
+        <v>727.1581768424415</v>
       </c>
       <c r="R6">
-        <v>3.133398648989425</v>
+        <v>6544.423591581974</v>
       </c>
       <c r="S6">
-        <v>0.002031517623880843</v>
+        <v>0.3975087660020154</v>
       </c>
       <c r="T6">
-        <v>0.002031517623880843</v>
+        <v>0.3975087660020153</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.497649899149719</v>
+        <v>88.03635633333333</v>
       </c>
       <c r="H7">
-        <v>0.497649899149719</v>
+        <v>264.109069</v>
       </c>
       <c r="I7">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709343</v>
       </c>
       <c r="J7">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709341</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.66517850639993</v>
+        <v>5.709686666666666</v>
       </c>
       <c r="N7">
-        <v>5.66517850639993</v>
+        <v>17.12906</v>
       </c>
       <c r="O7">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="P7">
-        <v>0.3163473374768699</v>
+        <v>0.2846990148258541</v>
       </c>
       <c r="Q7">
-        <v>2.819275512375081</v>
+        <v>502.6600099383488</v>
       </c>
       <c r="R7">
-        <v>2.819275512375081</v>
+        <v>4523.940089445139</v>
       </c>
       <c r="S7">
-        <v>0.001827858032623094</v>
+        <v>0.2747844508010647</v>
       </c>
       <c r="T7">
-        <v>0.001827858032623094</v>
+        <v>0.2747844508010647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.497649899149719</v>
+        <v>88.03635633333333</v>
       </c>
       <c r="H8">
-        <v>0.497649899149719</v>
+        <v>264.109069</v>
       </c>
       <c r="I8">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709343</v>
       </c>
       <c r="J8">
-        <v>0.005778009852087785</v>
+        <v>0.9651752780709341</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.0764131875407</v>
+        <v>4.176559</v>
       </c>
       <c r="N8">
-        <v>4.0764131875407</v>
+        <v>12.529677</v>
       </c>
       <c r="O8">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="P8">
-        <v>0.2276296248877749</v>
+        <v>0.2082535000745028</v>
       </c>
       <c r="Q8">
-        <v>2.028626611672214</v>
+        <v>367.6890363711904</v>
       </c>
       <c r="R8">
-        <v>2.028626611672214</v>
+        <v>3309.201327340712</v>
       </c>
       <c r="S8">
-        <v>0.00131524621522861</v>
+        <v>0.2010011298436536</v>
       </c>
       <c r="T8">
-        <v>0.00131524621522861</v>
+        <v>0.2010011298436536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>88.03635633333333</v>
+      </c>
+      <c r="H9">
+        <v>264.109069</v>
+      </c>
+      <c r="I9">
+        <v>0.9651752780709343</v>
+      </c>
+      <c r="J9">
+        <v>0.9651752780709341</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.909174</v>
+      </c>
+      <c r="N9">
+        <v>5.727522</v>
+      </c>
+      <c r="O9">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="P9">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="Q9">
+        <v>168.0767225663353</v>
+      </c>
+      <c r="R9">
+        <v>1512.690503097018</v>
+      </c>
+      <c r="S9">
+        <v>0.09188093142420053</v>
+      </c>
+      <c r="T9">
+        <v>0.09188093142420051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7423353333333332</v>
+      </c>
+      <c r="H10">
+        <v>2.227006</v>
+      </c>
+      <c r="I10">
+        <v>0.008138498020738693</v>
+      </c>
+      <c r="J10">
+        <v>0.008138498020738691</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.259748666666667</v>
+      </c>
+      <c r="N10">
+        <v>24.779246</v>
+      </c>
+      <c r="O10">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="P10">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="Q10">
+        <v>6.131503279719555</v>
+      </c>
+      <c r="R10">
+        <v>55.183529517476</v>
+      </c>
+      <c r="S10">
+        <v>0.003351851605440645</v>
+      </c>
+      <c r="T10">
+        <v>0.003351851605440645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7423353333333332</v>
+      </c>
+      <c r="H11">
+        <v>2.227006</v>
+      </c>
+      <c r="I11">
+        <v>0.008138498020738693</v>
+      </c>
+      <c r="J11">
+        <v>0.008138498020738691</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>5.709686666666666</v>
+      </c>
+      <c r="N11">
+        <v>17.12906</v>
+      </c>
+      <c r="O11">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="P11">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="Q11">
+        <v>4.238502154928888</v>
+      </c>
+      <c r="R11">
+        <v>38.14651939435999</v>
+      </c>
+      <c r="S11">
+        <v>0.002317022368666469</v>
+      </c>
+      <c r="T11">
+        <v>0.002317022368666469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7423353333333332</v>
+      </c>
+      <c r="H12">
+        <v>2.227006</v>
+      </c>
+      <c r="I12">
+        <v>0.008138498020738693</v>
+      </c>
+      <c r="J12">
+        <v>0.008138498020738691</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.176559</v>
+      </c>
+      <c r="N12">
+        <v>12.529677</v>
+      </c>
+      <c r="O12">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="P12">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="Q12">
+        <v>3.100407317451333</v>
+      </c>
+      <c r="R12">
+        <v>27.90366585706199</v>
+      </c>
+      <c r="S12">
+        <v>0.001694870698168247</v>
+      </c>
+      <c r="T12">
+        <v>0.001694870698168246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7423353333333332</v>
+      </c>
+      <c r="H13">
+        <v>2.227006</v>
+      </c>
+      <c r="I13">
+        <v>0.008138498020738693</v>
+      </c>
+      <c r="J13">
+        <v>0.008138498020738691</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.909174</v>
+      </c>
+      <c r="N13">
+        <v>5.727522</v>
+      </c>
+      <c r="O13">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="P13">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="Q13">
+        <v>1.417247317681333</v>
+      </c>
+      <c r="R13">
+        <v>12.755225859132</v>
+      </c>
+      <c r="S13">
+        <v>0.0007747533484633316</v>
+      </c>
+      <c r="T13">
+        <v>0.0007747533484633315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.497649899149719</v>
-      </c>
-      <c r="H9">
-        <v>0.497649899149719</v>
-      </c>
-      <c r="I9">
-        <v>0.005778009852087785</v>
-      </c>
-      <c r="J9">
-        <v>0.005778009852087785</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.87011275291609</v>
-      </c>
-      <c r="N9">
-        <v>1.87011275291609</v>
-      </c>
-      <c r="O9">
-        <v>0.1044283405188752</v>
-      </c>
-      <c r="P9">
-        <v>0.1044283405188752</v>
-      </c>
-      <c r="Q9">
-        <v>0.9306614228872956</v>
-      </c>
-      <c r="R9">
-        <v>0.9306614228872956</v>
-      </c>
-      <c r="S9">
-        <v>0.0006033879803552389</v>
-      </c>
-      <c r="T9">
-        <v>0.0006033879803552389</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.5442903333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.632871</v>
+      </c>
+      <c r="I14">
+        <v>0.005967257116335391</v>
+      </c>
+      <c r="J14">
+        <v>0.00596725711633539</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.259748666666667</v>
+      </c>
+      <c r="N14">
+        <v>24.779246</v>
+      </c>
+      <c r="O14">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="P14">
+        <v>0.4118513756345933</v>
+      </c>
+      <c r="Q14">
+        <v>4.495701355029556</v>
+      </c>
+      <c r="R14">
+        <v>40.461312195266</v>
+      </c>
+      <c r="S14">
+        <v>0.002457623052128047</v>
+      </c>
+      <c r="T14">
+        <v>0.002457623052128047</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.5442903333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.632871</v>
+      </c>
+      <c r="I15">
+        <v>0.005967257116335391</v>
+      </c>
+      <c r="J15">
+        <v>0.00596725711633539</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.709686666666666</v>
+      </c>
+      <c r="N15">
+        <v>17.12906</v>
+      </c>
+      <c r="O15">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="P15">
+        <v>0.2846990148258541</v>
+      </c>
+      <c r="Q15">
+        <v>3.107727259028889</v>
+      </c>
+      <c r="R15">
+        <v>27.96954533126</v>
+      </c>
+      <c r="S15">
+        <v>0.001698872222233253</v>
+      </c>
+      <c r="T15">
+        <v>0.001698872222233253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.5442903333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.632871</v>
+      </c>
+      <c r="I16">
+        <v>0.005967257116335391</v>
+      </c>
+      <c r="J16">
+        <v>0.00596725711633539</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.176559</v>
+      </c>
+      <c r="N16">
+        <v>12.529677</v>
+      </c>
+      <c r="O16">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="P16">
+        <v>0.2082535000745028</v>
+      </c>
+      <c r="Q16">
+        <v>2.273260690296334</v>
+      </c>
+      <c r="R16">
+        <v>20.459346212667</v>
+      </c>
+      <c r="S16">
+        <v>0.00124270218032133</v>
+      </c>
+      <c r="T16">
+        <v>0.00124270218032133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.5442903333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.632871</v>
+      </c>
+      <c r="I17">
+        <v>0.005967257116335391</v>
+      </c>
+      <c r="J17">
+        <v>0.00596725711633539</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.909174</v>
+      </c>
+      <c r="N17">
+        <v>5.727522</v>
+      </c>
+      <c r="O17">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="P17">
+        <v>0.09519610946504979</v>
+      </c>
+      <c r="Q17">
+        <v>1.039144952851334</v>
+      </c>
+      <c r="R17">
+        <v>9.352304575662002</v>
+      </c>
+      <c r="S17">
+        <v>0.0005680596616527612</v>
+      </c>
+      <c r="T17">
+        <v>0.0005680596616527612</v>
       </c>
     </row>
   </sheetData>
